--- a/data/loacations.xlsx
+++ b/data/loacations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
   <si>
     <t>type</t>
   </si>
@@ -31,6 +31,12 @@
     <t>lng</t>
   </si>
   <si>
+    <t>bed_size</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>Fangcang</t>
   </si>
   <si>
@@ -40,36 +46,54 @@
     <t>湖北省武汉市新洲区邾城全民健身中心(永安大道东)</t>
   </si>
   <si>
+    <t>http://www.wuhan.com/xinwen/39007.html</t>
+  </si>
+  <si>
     <t>方舱医院(白马驿站)</t>
   </si>
   <si>
     <t>湖北省武汉市洪山区欢乐大道</t>
   </si>
   <si>
+    <t>http://news.hbtv.com.cn/p/1785280.html</t>
+  </si>
+  <si>
     <t>长江新城方舱医院</t>
   </si>
   <si>
     <t>湖北省武汉市江岸区谌家矶特4号</t>
   </si>
   <si>
+    <t>https://tech.sina.com.cn/roll/2020-02-20/doc-iimxyqvz4537857.shtml</t>
+  </si>
+  <si>
     <t>方舱医院(洪山体育馆)</t>
   </si>
   <si>
     <t>湖北省武汉市武昌区体育馆路特1号</t>
   </si>
   <si>
+    <t>http://sports.sina.com.cn/others/others/2020-02-05/doc-iimxxste9049884.shtml</t>
+  </si>
+  <si>
     <t>方舱医院(石牌岭高级职业中学)</t>
   </si>
   <si>
     <t>湖北省武汉市洪山区石牌岭路13号</t>
   </si>
   <si>
+    <t>https://news.sina.cn/gn/2020-02-04/detail-iimxyqvz0301596.d.html?vt=4</t>
+  </si>
+  <si>
     <t>方舱医院(江汉经济开发区)</t>
   </si>
   <si>
     <t>湖北省武汉市江汉区江兴路25号</t>
   </si>
   <si>
+    <t>https://news.163.com/20/0309/15/F79MC4MA0001899O.html</t>
+  </si>
+  <si>
     <t>方舱医院(武汉体育馆)</t>
   </si>
   <si>
@@ -82,75 +106,114 @@
     <t>湖北省武汉市蔡甸区车城北路与体育路交叉口北</t>
   </si>
   <si>
+    <t>https://baike.baidu.com/item/%E6%AD%A6%E6%B1%89%E4%BD%93%E8%82%B2%E4%B8%AD%E5%BF%83%E6%96%B9%E8%88%B1%E5%8C%BB%E9%99%A2/24386714</t>
+  </si>
+  <si>
     <t>方舱医院(武钢体育馆)</t>
   </si>
   <si>
     <t>湖北省武汉市洪山区仁和路111号</t>
   </si>
   <si>
+    <t>http://henan.people.com.cn/n2/2020/0213/c351638-33792984.html</t>
+  </si>
+  <si>
     <t>方舱医院(中国光谷日海)</t>
   </si>
   <si>
     <t>湖北省武汉市江夏区栗庙路6号</t>
   </si>
   <si>
+    <t>http://hb.sina.com.cn/news/sh/2020-02-18/detail-iimxxstf2537813.shtml</t>
+  </si>
+  <si>
     <t>方舱医院(黄陂一中体育馆)</t>
   </si>
   <si>
     <t>湖北省武汉市黄陂区木兰大街</t>
   </si>
   <si>
+    <t>http://sports.ifeng.com/c/7tqMYIWdaYi</t>
+  </si>
+  <si>
     <t>方舱医院(塔子湖全民健身中心)</t>
   </si>
   <si>
     <t>湖北省武汉市江岸区后湖大道99号塔子湖体育中心</t>
   </si>
   <si>
+    <t>http://hb.sina.com.cn/news/b/2020-02-04/detail-iimxxste8831691.shtml</t>
+  </si>
+  <si>
     <t>方舱医院(蔡甸区知音谷)</t>
   </si>
   <si>
     <t xml:space="preserve">湖北省武汉市蔡甸区 </t>
   </si>
   <si>
+    <t>http://www.caidian.gov.cn/xwzx/cdxw/39178.htm</t>
+  </si>
+  <si>
     <t>方舱医院(武汉国际博览中心)</t>
   </si>
   <si>
     <t>湖北省武汉市汉阳区鹦鹉大道619号</t>
   </si>
   <si>
+    <t>http://hb.people.com.cn/n2/2020/0206/c192237-33772038.html</t>
+  </si>
+  <si>
     <t>方舱医院(武汉国际会展中心)</t>
   </si>
   <si>
     <t>湖北省武汉市江汉区解放大道696号</t>
   </si>
   <si>
+    <t>http://hb.sina.com.cn/news/b/2020-02-06/detail-iimxyqvz0674174.shtml</t>
+  </si>
+  <si>
     <t>方舱医院(湖北省委党校新校区)</t>
   </si>
   <si>
     <t xml:space="preserve">湖北省武汉市黄陂区 </t>
   </si>
   <si>
+    <t>http://hb.ifeng.com/a/20200217/8432608_0.shtml</t>
+  </si>
+  <si>
     <t>方舱医院(武汉经济开发区沌口)</t>
   </si>
   <si>
+    <t>https://www.twoeggz.com/info/265471.html</t>
+  </si>
+  <si>
     <t>方舱医院(中国光谷科技会展中心)</t>
   </si>
   <si>
     <t>湖北省武汉市洪山区高新大道787号</t>
   </si>
   <si>
+    <t>http://news.china.com.cn/txt/2020-02/05/content_75675461.htm</t>
+  </si>
+  <si>
     <t>方舱医院(大花山户外运动中心)</t>
   </si>
   <si>
     <t>湖北省武汉市江夏区纸坊东站向北200米中建二局大花山户外运动中心A馆</t>
   </si>
   <si>
+    <t>http://www.gov.cn/xinwen/2020-02/14/content_5478746.htm#1</t>
+  </si>
+  <si>
     <t>方舱医院(武汉市体育运动学校体育馆)</t>
   </si>
   <si>
     <t xml:space="preserve">湖北省武汉市汉阳区 </t>
   </si>
   <si>
+    <t>http://hb.sina.com.cn/news/b/2020-02-23/detail-iimxyqvz5087558.shtml</t>
+  </si>
+  <si>
     <t>Core</t>
   </si>
   <si>
@@ -160,12 +223,18 @@
     <t>湖北省武汉市蔡甸区新福路516号</t>
   </si>
   <si>
+    <t>http://wjw.wuhan.gov.cn/front/web/showDetail/2020020209357</t>
+  </si>
+  <si>
     <t>武汉市蔡甸区人民医院</t>
   </si>
   <si>
     <t>湖北省武汉市蔡甸区成功大道111号</t>
   </si>
   <si>
+    <t>http://wjw.wuhan.gov.cn/front/web/showDetail/2020022609813</t>
+  </si>
+  <si>
     <t>武汉市东西湖区人民医院</t>
   </si>
   <si>
@@ -178,6 +247,9 @@
     <t>湖北省武汉市蔡甸区健康大道东侧130米</t>
   </si>
   <si>
+    <t>http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627</t>
+  </si>
+  <si>
     <t>武汉市汉南区人民医院</t>
   </si>
   <si>
@@ -208,6 +280,9 @@
     <t>湖北省武汉市黄陂区盘龙大道42号</t>
   </si>
   <si>
+    <t>http://www.wuhan.com/life/38206.html</t>
+  </si>
+  <si>
     <t>武汉市中医医院（汉阳院区）</t>
   </si>
   <si>
@@ -226,6 +301,9 @@
     <t>湖北省武汉市汉阳区墨水湖路53号</t>
   </si>
   <si>
+    <t>http://wjw.wuhan.gov.cn/front/web/showDetail/2020020209355</t>
+  </si>
+  <si>
     <t>武汉市金银潭医院</t>
   </si>
   <si>
@@ -592,10 +670,16 @@
     <t>武汉国际博览中心</t>
   </si>
   <si>
+    <t>http://china.caixin.com/2020-02-01/101510491.html</t>
+  </si>
+  <si>
     <t>慈善总会联合仓库</t>
   </si>
   <si>
     <t>湖北省武汉市黄陂区天河街道黄承烈塆</t>
+  </si>
+  <si>
+    <t>https://m.gmw.cn/toutiao/2020-02/28/content_123168901.htm?tt_group_id=6798471582806180365</t>
   </si>
   <si>
     <t>武汉市江岸区应急管理局</t>
@@ -682,8 +766,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -703,17 +787,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,14 +812,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -749,17 +833,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,31 +863,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,14 +873,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,9 +886,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,7 +932,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,37 +1022,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,19 +1058,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +1088,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,97 +1106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,6 +1123,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1057,35 +1165,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1097,21 +1176,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,141 +1197,161 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1276,7 +1360,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,8 +1373,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1612,15 +1702,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1636,16 +1726,22 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>30.837821</v>
@@ -1653,16 +1749,22 @@
       <c r="E2">
         <v>114.808144</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>30.59863</v>
@@ -1670,16 +1772,22 @@
       <c r="E3">
         <v>114.42504</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>30.681784</v>
@@ -1687,16 +1795,22 @@
       <c r="E4">
         <v>114.36632</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>3840</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>30.545917</v>
@@ -1704,16 +1818,22 @@
       <c r="E5">
         <v>114.334634</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>800</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>30.524705</v>
@@ -1721,16 +1841,22 @@
       <c r="E6">
         <v>114.342449</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>800</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>30.621089</v>
@@ -1738,16 +1864,22 @@
       <c r="E7">
         <v>114.228881</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>682</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>30.577</v>
@@ -1755,16 +1887,22 @@
       <c r="E8">
         <v>114.260066</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>30.500686</v>
@@ -1772,16 +1910,22 @@
       <c r="E9">
         <v>114.171899</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>30.612412</v>
@@ -1789,16 +1933,22 @@
       <c r="E10">
         <v>114.388901</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>400</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>30.39347</v>
@@ -1806,16 +1956,22 @@
       <c r="E11">
         <v>114.426479</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>3700</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>30.90544</v>
@@ -1823,16 +1979,22 @@
       <c r="E12">
         <v>114.360695</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>300</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>30.641</v>
@@ -1840,16 +2002,22 @@
       <c r="E13">
         <v>114.284711</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>30.502381</v>
@@ -1857,16 +2025,22 @@
       <c r="E14">
         <v>114.059876</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>600</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>30.507009</v>
@@ -1874,16 +2048,22 @@
       <c r="E15">
         <v>114.242098</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>30.580293</v>
@@ -1891,16 +2071,22 @@
       <c r="E16">
         <v>114.273331</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>1600</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>30.699498</v>
@@ -1908,16 +2094,22 @@
       <c r="E17">
         <v>114.235175</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>932</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>30.452971</v>
@@ -1925,16 +2117,22 @@
       <c r="E18">
         <v>114.163264</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>996</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>30.490452</v>
@@ -1942,16 +2140,22 @@
       <c r="E19">
         <v>114.509388</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <v>30.357564</v>
@@ -1959,16 +2163,22 @@
       <c r="E20">
         <v>114.348006</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>400</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>30.569881</v>
@@ -1976,16 +2186,22 @@
       <c r="E21">
         <v>114.219133</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>960</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D22">
         <v>30.57702</v>
@@ -1993,16 +2209,22 @@
       <c r="E22">
         <v>114.02759</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>30.561282</v>
@@ -2010,16 +2232,22 @@
       <c r="E23">
         <v>114.04347</v>
       </c>
+      <c r="F23">
+        <v>690</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D24">
         <v>30.648869</v>
@@ -2028,15 +2256,15 @@
         <v>114.132874</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>30.548545</v>
@@ -2044,16 +2272,22 @@
       <c r="E25">
         <v>114.112783</v>
       </c>
+      <c r="F25">
+        <v>1050</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>30.314335</v>
@@ -2062,15 +2296,15 @@
         <v>114.07301</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D27">
         <v>30.3013</v>
@@ -2078,16 +2312,22 @@
       <c r="E27">
         <v>114.07676</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D28">
         <v>30.492572</v>
@@ -2095,16 +2335,22 @@
       <c r="E28">
         <v>114.173958</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>810</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>30.59275</v>
@@ -2112,16 +2358,22 @@
       <c r="E29">
         <v>114.204566</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>619</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <v>30.716671</v>
@@ -2129,16 +2381,22 @@
       <c r="E30">
         <v>114.260486</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>30.51957</v>
@@ -2146,16 +2404,22 @@
       <c r="E31">
         <v>114.21434</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>366</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D32">
         <v>30.581195</v>
@@ -2163,16 +2427,22 @@
       <c r="E32">
         <v>114.253381</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>122</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D33">
         <v>30.548535</v>
@@ -2180,16 +2450,22 @@
       <c r="E33">
         <v>114.245788</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>200</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>30.666798</v>
@@ -2197,16 +2473,22 @@
       <c r="E34">
         <v>114.285062</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>684</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D35">
         <v>30.613907</v>
@@ -2214,16 +2496,22 @@
       <c r="E35">
         <v>114.273173</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>400</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D36">
         <v>30.607233</v>
@@ -2231,16 +2519,22 @@
       <c r="E36">
         <v>114.273383</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>393</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D37">
         <v>30.623204</v>
@@ -2248,16 +2542,22 @@
       <c r="E37">
         <v>114.285622</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D38">
         <v>30.572263</v>
@@ -2265,16 +2565,22 @@
       <c r="E38">
         <v>114.272389</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>1142</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D39">
         <v>30.547532</v>
@@ -2282,16 +2588,22 @@
       <c r="E39">
         <v>114.271386</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>420</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D40">
         <v>30.600141</v>
@@ -2299,16 +2611,22 @@
       <c r="E40">
         <v>114.290395</v>
       </c>
+      <c r="F40">
+        <v>500</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D41">
         <v>30.887774</v>
@@ -2317,15 +2635,15 @@
         <v>114.370661</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D42">
         <v>30.625517</v>
@@ -2333,16 +2651,22 @@
       <c r="E42">
         <v>114.300232</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>378</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D43">
         <v>30.871935</v>
@@ -2350,16 +2674,22 @@
       <c r="E43">
         <v>114.376293</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>411</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D44">
         <v>30.603715</v>
@@ -2367,16 +2697,22 @@
       <c r="E44">
         <v>114.305821</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>237</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D45">
         <v>30.863733</v>
@@ -2384,16 +2720,22 @@
       <c r="E45">
         <v>114.393801</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>70</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D46">
         <v>30.580984</v>
@@ -2401,16 +2743,22 @@
       <c r="E46">
         <v>114.328199</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>288</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D47">
         <v>30.602685</v>
@@ -2418,16 +2766,22 @@
       <c r="E47">
         <v>114.342288</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>504</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D48">
         <v>30.524819</v>
@@ -2435,16 +2789,22 @@
       <c r="E48">
         <v>114.326415</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>350</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D49">
         <v>30.541887</v>
@@ -2452,16 +2812,22 @@
       <c r="E49">
         <v>114.331832</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>268</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D50">
         <v>30.531232</v>
@@ -2469,16 +2835,22 @@
       <c r="E50">
         <v>114.344952</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>280</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D51">
         <v>30.623763</v>
@@ -2486,16 +2858,22 @@
       <c r="E51">
         <v>114.379557</v>
       </c>
+      <c r="F51">
+        <v>405</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D52">
         <v>30.37107</v>
@@ -2504,15 +2882,15 @@
         <v>114.32095</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D53">
         <v>30.343161</v>
@@ -2520,16 +2898,22 @@
       <c r="E53">
         <v>114.317775</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>200</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D54">
         <v>30.521086</v>
@@ -2537,16 +2921,22 @@
       <c r="E54">
         <v>114.366973</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>305</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D55">
         <v>30.65692</v>
@@ -2554,16 +2944,22 @@
       <c r="E55">
         <v>114.43364</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D56">
         <v>30.498925</v>
@@ -2571,16 +2967,22 @@
       <c r="E56">
         <v>114.41119</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>600</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D57">
         <v>30.44</v>
@@ -2588,16 +2990,22 @@
       <c r="E57">
         <v>114.44126</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>800</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="D58">
         <v>30.85184</v>
@@ -2605,16 +3013,22 @@
       <c r="E58">
         <v>114.80466</v>
       </c>
+      <c r="F58">
+        <v>300</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D59">
         <v>30.84355</v>
@@ -2623,15 +3037,15 @@
         <v>114.80403</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="D60">
         <v>30.57183</v>
@@ -2639,16 +3053,18 @@
       <c r="E60">
         <v>114.0323</v>
       </c>
+      <c r="F60"/>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D61">
         <v>30.637524</v>
@@ -2659,13 +3075,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D62">
         <v>30.546915</v>
@@ -2676,13 +3092,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D63">
         <v>30.62827</v>
@@ -2693,13 +3109,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="D64">
         <v>30.569122</v>
@@ -2710,13 +3126,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="D65">
         <v>30.579362</v>
@@ -2727,13 +3143,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="D66">
         <v>30.5658</v>
@@ -2744,13 +3160,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D67">
         <v>30.584277</v>
@@ -2761,13 +3177,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="D68">
         <v>30.606478</v>
@@ -2778,13 +3194,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D69">
         <v>30.582964</v>
@@ -2795,13 +3211,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D70">
         <v>30.582964</v>
@@ -2812,13 +3228,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D71">
         <v>30.60308</v>
@@ -2829,13 +3245,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D72">
         <v>30.581211</v>
@@ -2846,13 +3262,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D73">
         <v>30.581211</v>
@@ -2863,13 +3279,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="D74">
         <v>30.588484</v>
@@ -2880,13 +3296,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D75">
         <v>30.61487</v>
@@ -2897,13 +3313,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D76">
         <v>30.535251</v>
@@ -2914,13 +3330,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="D77">
         <v>30.540548</v>
@@ -2931,13 +3347,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D78">
         <v>30.550532</v>
@@ -2948,13 +3364,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="D79">
         <v>30.544322</v>
@@ -2965,13 +3381,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D80">
         <v>30.553486</v>
@@ -2982,13 +3398,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D81">
         <v>30.52744</v>
@@ -2999,13 +3415,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="D82">
         <v>30.631234</v>
@@ -3016,13 +3432,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D83">
         <v>30.35346</v>
@@ -3033,13 +3449,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D84">
         <v>30.63215</v>
@@ -3050,13 +3466,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D85">
         <v>30.505842</v>
@@ -3067,13 +3483,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D86">
         <v>30.65692</v>
@@ -3084,13 +3500,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="D87">
         <v>30.506315</v>
@@ -3101,13 +3517,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D88">
         <v>30.57462</v>
@@ -3118,13 +3534,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D89">
         <v>30.44</v>
@@ -3135,13 +3551,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="D90">
         <v>30.48767</v>
@@ -3152,13 +3568,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="D91">
         <v>30.676869</v>
@@ -3167,15 +3583,15 @@
         <v>114.583257</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="D92">
         <v>30.527887</v>
@@ -3183,16 +3599,22 @@
       <c r="E92">
         <v>114.087392</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>1020</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D93">
         <v>30.430179</v>
@@ -3200,16 +3622,22 @@
       <c r="E93">
         <v>114.291359</v>
       </c>
+      <c r="F93">
+        <v>1396</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="D94">
         <v>30.589509</v>
@@ -3218,15 +3646,15 @@
         <v>114.300335</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D95">
         <v>30.506843</v>
@@ -3234,16 +3662,22 @@
       <c r="E95">
         <v>114.241888</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>20000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D96">
         <v>30.81081</v>
@@ -3251,16 +3685,22 @@
       <c r="E96">
         <v>114.226873</v>
       </c>
+      <c r="F96">
+        <v>7300</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="D97">
         <v>30.634988</v>
@@ -3271,13 +3711,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="D98">
         <v>30.55423</v>
@@ -3288,13 +3728,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="D99">
         <v>30.841568</v>
@@ -3305,13 +3745,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="D100">
         <v>30.57813</v>
@@ -3322,13 +3762,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="D101">
         <v>30.882697</v>
@@ -3339,13 +3779,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="D102">
         <v>30.34257</v>
@@ -3356,13 +3796,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="D103">
         <v>30.50054</v>
@@ -3373,13 +3813,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="D104">
         <v>30.63116</v>
@@ -3390,13 +3830,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="D105">
         <v>30.60574</v>
@@ -3407,13 +3847,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="D106">
         <v>30.65144</v>
@@ -3424,13 +3864,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="D107">
         <v>30.55385</v>
@@ -3441,13 +3881,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D108">
         <v>30.58229</v>
@@ -3458,13 +3898,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D109">
         <v>30.50574</v>
@@ -3474,6 +3914,65 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="http://www.wuhan.com/xinwen/39007.html"/>
+    <hyperlink ref="G3" r:id="rId2" display="http://news.hbtv.com.cn/p/1785280.html"/>
+    <hyperlink ref="G4" r:id="rId3" display="https://tech.sina.com.cn/roll/2020-02-20/doc-iimxyqvz4537857.shtml"/>
+    <hyperlink ref="G5" r:id="rId4" display="http://sports.sina.com.cn/others/others/2020-02-05/doc-iimxxste9049884.shtml"/>
+    <hyperlink ref="G6" r:id="rId5" display="https://news.sina.cn/gn/2020-02-04/detail-iimxyqvz0301596.d.html?vt=4"/>
+    <hyperlink ref="G7" r:id="rId6" display="https://news.163.com/20/0309/15/F79MC4MA0001899O.html"/>
+    <hyperlink ref="G8" r:id="rId5" display="https://news.sina.cn/gn/2020-02-04/detail-iimxyqvz0301596.d.html?vt=4"/>
+    <hyperlink ref="G9" r:id="rId7" display="https://baike.baidu.com/item/%E6%AD%A6%E6%B1%89%E4%BD%93%E8%82%B2%E4%B8%AD%E5%BF%83%E6%96%B9%E8%88%B1%E5%8C%BB%E9%99%A2/24386714"/>
+    <hyperlink ref="G10" r:id="rId8" display="http://henan.people.com.cn/n2/2020/0213/c351638-33792984.html"/>
+    <hyperlink ref="G11" r:id="rId9" display="http://hb.sina.com.cn/news/sh/2020-02-18/detail-iimxxstf2537813.shtml"/>
+    <hyperlink ref="G12" r:id="rId10" display="http://sports.ifeng.com/c/7tqMYIWdaYi"/>
+    <hyperlink ref="G13" r:id="rId11" display="http://hb.sina.com.cn/news/b/2020-02-04/detail-iimxxste8831691.shtml"/>
+    <hyperlink ref="G14" r:id="rId12" display="http://www.caidian.gov.cn/xwzx/cdxw/39178.htm"/>
+    <hyperlink ref="G15" r:id="rId13" display="http://hb.people.com.cn/n2/2020/0206/c192237-33772038.html"/>
+    <hyperlink ref="G16" r:id="rId14" display="http://hb.sina.com.cn/news/b/2020-02-06/detail-iimxyqvz0674174.shtml"/>
+    <hyperlink ref="G17" r:id="rId15" display="http://hb.ifeng.com/a/20200217/8432608_0.shtml"/>
+    <hyperlink ref="G18" r:id="rId16" display="https://www.twoeggz.com/info/265471.html"/>
+    <hyperlink ref="G19" r:id="rId17" display="http://news.china.com.cn/txt/2020-02/05/content_75675461.htm"/>
+    <hyperlink ref="G20" r:id="rId18" display="http://www.gov.cn/xinwen/2020-02/14/content_5478746.htm#1"/>
+    <hyperlink ref="G21" r:id="rId19" display="http://hb.sina.com.cn/news/b/2020-02-23/detail-iimxyqvz5087558.shtml"/>
+    <hyperlink ref="G25" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G27" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G28" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G29" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G31" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G32" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G34" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G35" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G36" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G38" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G39" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G40" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G42" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G43" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G44" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G46" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G47" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G48" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G49" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G50" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G51" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G53" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G54" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G56" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G57" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G58" r:id="rId20" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020021709627"/>
+    <hyperlink ref="G23" r:id="rId21" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020022609813" tooltip="http://wjw.wuhan.gov.cn/front/web/showDetail/2020022609813"/>
+    <hyperlink ref="G22" r:id="rId22" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020020209357" tooltip="http://wjw.wuhan.gov.cn/front/web/showDetail/2020020209357"/>
+    <hyperlink ref="G30" r:id="rId23" display="http://www.wuhan.com/life/38206.html"/>
+    <hyperlink ref="G33" r:id="rId24" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020020209355"/>
+    <hyperlink ref="G45" r:id="rId24" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020020209355"/>
+    <hyperlink ref="G37" r:id="rId24" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020020209355"/>
+    <hyperlink ref="G55" r:id="rId24" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020020209355"/>
+    <hyperlink ref="G92" r:id="rId21" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020022609813"/>
+    <hyperlink ref="G93" r:id="rId21" display="http://wjw.wuhan.gov.cn/front/web/showDetail/2020022609813"/>
+    <hyperlink ref="G96" r:id="rId25" display="https://m.gmw.cn/toutiao/2020-02/28/content_123168901.htm?tt_group_id=6798471582806180365"/>
+    <hyperlink ref="G95" r:id="rId26" display="http://china.caixin.com/2020-02-01/101510491.html" tooltip="http://china.caixin.com/2020-02-01/101510491.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/data/loacations.xlsx
+++ b/data/loacations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11120"/>
+    <workbookView windowWidth="28800" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="loacations" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249">
   <si>
     <t>type</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>requirement</t>
   </si>
   <si>
     <t>Fangcang</t>
@@ -766,9 +769,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -803,39 +806,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,8 +820,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,16 +844,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,9 +873,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,10 +902,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -938,19 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +953,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,43 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,43 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,43 +1115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,30 +1139,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1195,6 +1174,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1219,7 +1222,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,133 +1231,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1363,7 +1366,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,15 +1705,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="8" max="8" width="8.5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1732,16 +1738,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>30.837821</v>
@@ -1753,18 +1762,22 @@
         <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <f>F2*26.6</f>
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>30.59863</v>
@@ -1776,18 +1789,22 @@
         <v>200</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H29" si="0">F3*26.6</f>
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>30.681784</v>
@@ -1799,18 +1816,22 @@
         <v>3840</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>102144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>30.545917</v>
@@ -1822,18 +1843,22 @@
         <v>800</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>21280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>30.524705</v>
@@ -1845,18 +1870,22 @@
         <v>800</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>21280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>30.621089</v>
@@ -1868,18 +1897,22 @@
         <v>682</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>18141.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>30.577</v>
@@ -1891,18 +1924,22 @@
         <v>300</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>30.500686</v>
@@ -1914,18 +1951,22 @@
         <v>1100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>29260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>30.612412</v>
@@ -1937,18 +1978,22 @@
         <v>400</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>30.39347</v>
@@ -1960,18 +2005,22 @@
         <v>3700</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>98420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>30.90544</v>
@@ -1983,18 +2032,22 @@
         <v>300</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>30.641</v>
@@ -2006,18 +2059,22 @@
         <v>1000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>30.502381</v>
@@ -2029,18 +2086,22 @@
         <v>600</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>15960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>30.507009</v>
@@ -2052,18 +2113,22 @@
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>49</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>30.580293</v>
@@ -2075,18 +2140,22 @@
         <v>1600</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>42560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>30.699498</v>
@@ -2098,18 +2167,22 @@
         <v>932</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>24791.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>30.452971</v>
@@ -2121,18 +2194,22 @@
         <v>996</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>26493.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>30.490452</v>
@@ -2144,18 +2221,22 @@
         <v>1000</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>30.357564</v>
@@ -2167,18 +2248,22 @@
         <v>400</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>30.569881</v>
@@ -2190,18 +2275,22 @@
         <v>960</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>25536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22">
         <v>30.57702</v>
@@ -2213,18 +2302,22 @@
         <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>30.561282</v>
@@ -2236,18 +2329,22 @@
         <v>690</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>18354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24">
         <v>30.648869</v>
@@ -2255,16 +2352,20 @@
       <c r="E24">
         <v>114.132874</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>30.548545</v>
@@ -2276,18 +2377,22 @@
         <v>1050</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>27930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26">
         <v>30.314335</v>
@@ -2295,16 +2400,20 @@
       <c r="E26">
         <v>114.07301</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <v>30.3013</v>
@@ -2316,18 +2425,22 @@
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>691.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28">
         <v>30.492572</v>
@@ -2339,18 +2452,22 @@
         <v>810</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>21546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29">
         <v>30.59275</v>
@@ -2362,18 +2479,22 @@
         <v>619</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>16465.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30">
         <v>30.716671</v>
@@ -2385,18 +2506,22 @@
         <v>50</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>89</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H46" si="1">F30*26.6</f>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>30.51957</v>
@@ -2408,18 +2533,22 @@
         <v>366</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>9735.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32">
         <v>30.581195</v>
@@ -2431,18 +2560,22 @@
         <v>122</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>3245.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>30.548535</v>
@@ -2454,18 +2587,22 @@
         <v>200</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34">
         <v>30.666798</v>
@@ -2477,18 +2614,22 @@
         <v>684</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>18194.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <v>30.613907</v>
@@ -2500,18 +2641,22 @@
         <v>400</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36">
         <v>30.607233</v>
@@ -2523,18 +2668,22 @@
         <v>393</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>10453.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37">
         <v>30.623204</v>
@@ -2546,18 +2695,22 @@
         <v>100</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38">
         <v>30.572263</v>
@@ -2569,18 +2722,22 @@
         <v>1142</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>30377.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39">
         <v>30.547532</v>
@@ -2592,18 +2749,22 @@
         <v>420</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>11172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40">
         <v>30.600141</v>
@@ -2615,18 +2776,22 @@
         <v>500</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41">
         <v>30.887774</v>
@@ -2634,16 +2799,20 @@
       <c r="E41">
         <v>114.370661</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42">
         <v>30.625517</v>
@@ -2655,18 +2824,22 @@
         <v>378</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>10054.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43">
         <v>30.871935</v>
@@ -2678,18 +2851,22 @@
         <v>411</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>10932.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44">
         <v>30.603715</v>
@@ -2701,18 +2878,22 @@
         <v>237</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>6304.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45">
         <v>30.863733</v>
@@ -2724,18 +2905,22 @@
         <v>70</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46">
         <v>30.580984</v>
@@ -2747,18 +2932,22 @@
         <v>288</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>7660.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47">
         <v>30.602685</v>
@@ -2770,18 +2959,22 @@
         <v>504</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:H57" si="2">F47*26.6</f>
+        <v>13406.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48">
         <v>30.524819</v>
@@ -2793,18 +2986,22 @@
         <v>350</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49">
         <v>30.541887</v>
@@ -2816,18 +3013,22 @@
         <v>268</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>7128.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D50">
         <v>30.531232</v>
@@ -2839,18 +3040,22 @@
         <v>280</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>7448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D51">
         <v>30.623763</v>
@@ -2862,18 +3067,22 @@
         <v>405</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>10773</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D52">
         <v>30.37107</v>
@@ -2881,16 +3090,20 @@
       <c r="E52">
         <v>114.32095</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53">
         <v>30.343161</v>
@@ -2902,18 +3115,22 @@
         <v>200</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D54">
         <v>30.521086</v>
@@ -2925,18 +3142,22 @@
         <v>305</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>8113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D55">
         <v>30.65692</v>
@@ -2948,18 +3169,22 @@
         <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56">
         <v>30.498925</v>
@@ -2971,18 +3196,22 @@
         <v>600</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>15960</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D57">
         <v>30.44</v>
@@ -2994,18 +3223,22 @@
         <v>800</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>21280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D58">
         <v>30.85184</v>
@@ -3017,18 +3250,22 @@
         <v>300</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="H58">
+        <f>F58*26.6</f>
+        <v>7980</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D59">
         <v>30.84355</v>
@@ -3039,13 +3276,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D60">
         <v>30.57183</v>
@@ -3053,18 +3290,17 @@
       <c r="E60">
         <v>114.0323</v>
       </c>
-      <c r="F60"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D61">
         <v>30.637524</v>
@@ -3075,13 +3311,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D62">
         <v>30.546915</v>
@@ -3092,13 +3328,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D63">
         <v>30.62827</v>
@@ -3109,13 +3345,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D64">
         <v>30.569122</v>
@@ -3126,13 +3362,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65">
         <v>30.579362</v>
@@ -3143,13 +3379,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D66">
         <v>30.5658</v>
@@ -3160,13 +3396,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D67">
         <v>30.584277</v>
@@ -3177,13 +3413,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D68">
         <v>30.606478</v>
@@ -3194,13 +3430,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D69">
         <v>30.582964</v>
@@ -3211,13 +3447,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" t="s">
         <v>169</v>
-      </c>
-      <c r="C70" t="s">
-        <v>168</v>
       </c>
       <c r="D70">
         <v>30.582964</v>
@@ -3228,13 +3464,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D71">
         <v>30.60308</v>
@@ -3245,13 +3481,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D72">
         <v>30.581211</v>
@@ -3262,13 +3498,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
         <v>174</v>
-      </c>
-      <c r="C73" t="s">
-        <v>173</v>
       </c>
       <c r="D73">
         <v>30.581211</v>
@@ -3279,13 +3515,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D74">
         <v>30.588484</v>
@@ -3296,13 +3532,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D75">
         <v>30.61487</v>
@@ -3313,13 +3549,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D76">
         <v>30.535251</v>
@@ -3330,13 +3566,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D77">
         <v>30.540548</v>
@@ -3347,13 +3583,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D78">
         <v>30.550532</v>
@@ -3364,13 +3600,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D79">
         <v>30.544322</v>
@@ -3381,13 +3617,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D80">
         <v>30.553486</v>
@@ -3398,13 +3634,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D81">
         <v>30.52744</v>
@@ -3415,13 +3651,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D82">
         <v>30.631234</v>
@@ -3432,13 +3668,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D83">
         <v>30.35346</v>
@@ -3449,13 +3685,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D84">
         <v>30.63215</v>
@@ -3466,13 +3702,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D85">
         <v>30.505842</v>
@@ -3483,13 +3719,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D86">
         <v>30.65692</v>
@@ -3500,13 +3736,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D87">
         <v>30.506315</v>
@@ -3517,13 +3753,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D88">
         <v>30.57462</v>
@@ -3534,13 +3770,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D89">
         <v>30.44</v>
@@ -3551,13 +3787,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D90">
         <v>30.48767</v>
@@ -3568,13 +3804,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D91">
         <v>30.676869</v>
@@ -3583,15 +3819,15 @@
         <v>114.583257</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D92">
         <v>30.527887</v>
@@ -3603,18 +3839,22 @@
         <v>1020</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H92">
+        <f>F92*26.6</f>
+        <v>27132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D93">
         <v>30.430179</v>
@@ -3626,18 +3866,22 @@
         <v>1396</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="H93">
+        <f>F93*26.6</f>
+        <v>37133.6</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D94">
         <v>30.589509</v>
@@ -3648,13 +3892,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D95">
         <v>30.506843</v>
@@ -3666,18 +3910,18 @@
         <v>20000</v>
       </c>
       <c r="G95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D96">
         <v>30.81081</v>
@@ -3689,18 +3933,18 @@
         <v>7300</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D97">
         <v>30.634988</v>
@@ -3711,13 +3955,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D98">
         <v>30.55423</v>
@@ -3728,13 +3972,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D99">
         <v>30.841568</v>
@@ -3745,13 +3989,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D100">
         <v>30.57813</v>
@@ -3762,13 +4006,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D101">
         <v>30.882697</v>
@@ -3779,13 +4023,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D102">
         <v>30.34257</v>
@@ -3796,13 +4040,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D103">
         <v>30.50054</v>
@@ -3813,13 +4057,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D104">
         <v>30.63116</v>
@@ -3830,13 +4074,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D105">
         <v>30.60574</v>
@@ -3847,13 +4091,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D106">
         <v>30.65144</v>
@@ -3864,13 +4108,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D107">
         <v>30.55385</v>
@@ -3881,13 +4125,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D108">
         <v>30.58229</v>
@@ -3898,13 +4142,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D109">
         <v>30.50574</v>
